--- a/visualization/simulation_viz/tests/test_files/test_thermodynamics_checks/model_v1_base.xlsx
+++ b/visualization/simulation_viz/tests/test_files/test_thermodynamics_checks/model_v1_base.xlsx
@@ -5,23 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="extra" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="304">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -44,25 +42,40 @@
     <t xml:space="preserve">putida_v1</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
   </si>
   <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of model structures</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of particles</t>
+    <t xml:space="preserve">Number of models</t>
   </si>
   <si>
     <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
@@ -71,19 +84,10 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+    <t xml:space="preserve">Final tolerance (in the case of GRASP, set to 1)</t>
   </si>
   <si>
     <t xml:space="preserve">rxn ID</t>
@@ -308,7 +312,7 @@
     <t xml:space="preserve">R_EX_pep</t>
   </si>
   <si>
-    <t xml:space="preserve">ID</t>
+    <t xml:space="preserve">metabolite ID</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolite name</t>
@@ -317,12 +321,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constant?</t>
-  </si>
-  <si>
     <t xml:space="preserve">D-glucose extracellular</t>
   </si>
   <si>
@@ -443,13 +441,16 @@
     <t xml:space="preserve">phosphoenolpyruvate extracellular</t>
   </si>
   <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">reaction name</t>
   </si>
   <si>
-    <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
+    <t xml:space="preserve">transport reaction?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
   </si>
   <si>
     <t xml:space="preserve">Glucose transport via diffusion (extracellular to periplasm)</t>
@@ -584,112 +585,31 @@
     <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
   </si>
   <si>
-    <t xml:space="preserve">EC number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6.3.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.1.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equilibrator:  D-Glucose + Ubiquinone + H2O &lt;=&gt; D-Gluconate + Ubiquinol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">equilibrator: D-Gluconate + Ubiquinone &lt;=&gt; 2-Keto-D-gluconic acid + Ubiquinol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1.1.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.3.1.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.3.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2.1.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.2.1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 4.1.2.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.3.1.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.1.3.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">used D-fbp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.2.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.3.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1.2.1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.2.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.4.2.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2.1.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7.1.40</t>
-  </si>
-  <si>
     <t xml:space="preserve">min (M)</t>
   </si>
   <si>
     <t xml:space="preserve">max (M)</t>
   </si>
   <si>
-    <t xml:space="preserve">reaction ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">vref_mean (mmol/L/h)</t>
   </si>
   <si>
     <t xml:space="preserve">vref_std (mmol/L/h)</t>
   </si>
   <si>
-    <t xml:space="preserve">enzyme/rxn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_LB2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_meas2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MBo10_UB2</t>
+    <t xml:space="preserve">reaction/enzyme ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper_bound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
   </si>
   <si>
     <t xml:space="preserve">kinetic mechanism</t>
@@ -1128,13 +1048,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1177,12 +1101,14 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="43.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1190,99 +1116,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="n">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -1304,94 +1236,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="n">
-        <f aca="false">B3+B12</f>
-        <v>6110</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="0" t="n">
-        <f aca="false">B14-B24</f>
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1402,51 +1316,38 @@
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="n">
-        <f aca="false">4.79*10^3</f>
-        <v>4790</v>
+        <v>0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="n">
-        <f aca="false">4.79*10^3</f>
-        <v>4790</v>
+        <v>0</v>
       </c>
       <c r="C7" s="0" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1457,499 +1358,368 @@
       <c r="D8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="n">
-        <f aca="false">0.72*10^3</f>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="n">
-        <f aca="false">0.72*10^3</f>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="C10" s="0" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="n">
-        <f aca="false">0.72*10^3</f>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="n">
-        <f aca="false">5.51*10^3</f>
-        <v>5510</v>
+        <v>0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="n">
-        <f aca="false">0.72*10^3</f>
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <f aca="false">0.06*10^3</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="n">
-        <f aca="false">1.17*10^3</f>
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="n">
-        <f aca="false">1.17*10^3</f>
-        <v>1170</v>
+        <v>0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" s="0" t="n">
-        <f aca="false">0.59*10^3</f>
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="C16" s="0" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" s="0" t="n">
-        <f aca="false">0.44*10^3</f>
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="C17" s="0" t="n">
-        <f aca="false">0.59*10^3</f>
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="n">
-        <f aca="false">0.15*10^3</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C18" s="0" t="n">
-        <f aca="false">0.59*10^3</f>
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" s="0" t="n">
-        <f aca="false">0.15*10^3</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C19" s="0" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" s="0" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C20" s="0" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" s="0" t="n">
-        <f aca="false">0.15*10^3</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <f aca="false">0.01*10^3</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="n">
-        <f aca="false">6.11*10^ 3</f>
-        <v>6110</v>
+        <v>0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" s="0" t="n">
-        <f aca="false">6.11*10^ 3</f>
-        <v>6110</v>
+        <v>0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="n">
-        <f aca="false">0.57*10^3</f>
-        <v>570</v>
+        <v>0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" s="0" t="n">
-        <f aca="false">0.46*10^3</f>
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="C25" s="0" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" s="0" t="n">
-        <f aca="false">0.46*10^3</f>
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" s="0" t="n">
-        <f aca="false">0.46*10^3</f>
-        <v>460</v>
+        <v>0</v>
       </c>
       <c r="C27" s="0" t="n">
-        <f aca="false">0.03*10^3</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" s="0" t="n">
-        <f aca="false">5.11*10^3</f>
-        <v>5110</v>
+        <v>0</v>
       </c>
       <c r="C28" s="0" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" s="0" t="n">
-        <f aca="false">5.11*10^3</f>
-        <v>5110</v>
+        <v>0</v>
       </c>
       <c r="C29" s="0" t="n">
-        <f aca="false">0.04*10^3</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" s="0" t="n">
-        <f aca="false">4.36*10^3</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="C30" s="0" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" s="0" t="n">
-        <f aca="false">4.36*10^3</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="C31" s="0" t="n">
-        <f aca="false">0.07*10^3</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" s="0" t="n">
-        <f aca="false">3.89*10^3</f>
-        <v>3890</v>
+        <v>0</v>
       </c>
       <c r="C32" s="0" t="n">
-        <f aca="false">0.08*10^3</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" s="0" t="n">
-        <f aca="false">B23+B32</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B34" s="0" t="n">
-        <f aca="false">B31-B32</f>
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1969,10 +1739,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1980,23 +1750,23 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -2010,7 +1780,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2024,7 +1794,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2038,7 +1808,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2052,7 +1822,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2066,7 +1836,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2080,7 +1850,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2094,7 +1864,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2108,7 +1878,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2122,7 +1892,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -2136,7 +1906,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -2150,7 +1920,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -2164,7 +1934,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -2178,7 +1948,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -2192,7 +1962,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -2206,7 +1976,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -2220,7 +1990,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -2234,7 +2004,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -2248,7 +2018,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -2262,7 +2032,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -2276,7 +2046,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -2290,7 +2060,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -2304,7 +2074,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -2318,7 +2088,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -2332,7 +2102,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -2346,7 +2116,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -2360,7 +2130,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -2374,7 +2144,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -2388,7 +2158,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -2402,7 +2172,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -2416,7 +2186,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -2430,7 +2200,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -2444,7 +2214,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -2453,6 +2223,104 @@
         <v>0</v>
       </c>
       <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2472,589 +2340,1094 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="20.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="39.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="6.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="5.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="5.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="4.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="10.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="4" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="4" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="0"/>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0"/>
+      <c r="L3" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="N3" s="0"/>
+      <c r="O3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C4" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="0"/>
+      <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="0"/>
+      <c r="L4" s="7" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="M4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0"/>
+      <c r="L6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" s="0"/>
+      <c r="L7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0"/>
+      <c r="L9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="L10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="N10" s="0"/>
+      <c r="O10" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
+      <c r="H12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0"/>
+      <c r="L13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="0"/>
+      <c r="E14" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="N14" s="0"/>
+      <c r="O14" s="7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D15" s="0"/>
+      <c r="E15" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="0"/>
+      <c r="H16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="I16" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="0"/>
+      <c r="H17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" s="0"/>
+      <c r="L17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" s="0"/>
+      <c r="L18" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" s="0"/>
+      <c r="L19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="0"/>
+      <c r="L20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K21" s="0"/>
+      <c r="L21" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" s="0"/>
+      <c r="L22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" s="0"/>
+      <c r="L23" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" s="0"/>
+      <c r="L24" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>0</v>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" s="0"/>
+      <c r="L26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+      <c r="J27" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K27" s="0"/>
+      <c r="L27" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+      <c r="J28" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K28" s="0"/>
+      <c r="L28" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+      <c r="J29" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M29" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+      <c r="J30" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K30" s="0"/>
+      <c r="L30" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H31" s="0"/>
+      <c r="I31" s="0"/>
+      <c r="J31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" s="0"/>
+      <c r="L31" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="N31" s="0"/>
+      <c r="O31" s="0"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="0"/>
+      <c r="I32" s="0"/>
+      <c r="J32" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" s="0"/>
+      <c r="L32" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="N32" s="0"/>
+      <c r="O32" s="0"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H33" s="0"/>
+      <c r="I33" s="0"/>
+      <c r="J33" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K33" s="0"/>
+      <c r="L33" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H34" s="0"/>
+      <c r="I34" s="0"/>
+      <c r="J34" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" s="0"/>
+      <c r="L34" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="N34" s="0"/>
+      <c r="O34" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H35" s="0"/>
+      <c r="I35" s="0"/>
+      <c r="J35" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K35" s="0"/>
+      <c r="L35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="N35" s="0"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I36" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J36" s="7" t="n">
+        <v>4</v>
+      </c>
+      <c r="K36" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J37" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3064,1394 +3437,6 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:O38"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="20.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="39.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="6.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="5.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="4.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="5.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="4.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="10.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="3" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
-      <c r="J2" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="H3" s="0"/>
-      <c r="I3" s="0"/>
-      <c r="J3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="0"/>
-      <c r="L3" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="N3" s="0"/>
-      <c r="O3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-      <c r="J4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" s="0"/>
-      <c r="L4" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="N4" s="0"/>
-      <c r="O4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-      <c r="J5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="N5" s="0"/>
-      <c r="O5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-      <c r="J6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="0"/>
-      <c r="L6" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="N6" s="0"/>
-      <c r="O6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="J7" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" s="0"/>
-      <c r="L7" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="0"/>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="H9" s="0"/>
-      <c r="I9" s="0"/>
-      <c r="J9" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="0"/>
-      <c r="L9" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="N9" s="0"/>
-      <c r="O9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="0"/>
-      <c r="L10" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="N10" s="0"/>
-      <c r="O10" s="6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="0"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" s="0"/>
-      <c r="L12" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" s="0"/>
-      <c r="L13" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D14" s="0"/>
-      <c r="E14" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="F14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="N14" s="0"/>
-      <c r="O14" s="6" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="0"/>
-      <c r="E15" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="0"/>
-      <c r="D16" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" s="0"/>
-      <c r="H16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="0"/>
-      <c r="D17" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="F17" s="0"/>
-      <c r="H17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" s="0"/>
-      <c r="L17" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" s="0"/>
-      <c r="L18" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" s="0"/>
-      <c r="L19" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="F20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" s="0"/>
-      <c r="L20" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="F21" s="0"/>
-      <c r="H21" s="0"/>
-      <c r="I21" s="0"/>
-      <c r="J21" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" s="0"/>
-      <c r="L21" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F22" s="0"/>
-      <c r="H22" s="0"/>
-      <c r="I22" s="0"/>
-      <c r="J22" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" s="0"/>
-      <c r="L22" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="0"/>
-      <c r="H23" s="0"/>
-      <c r="I23" s="0"/>
-      <c r="J23" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" s="0"/>
-      <c r="L23" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="F24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" s="0"/>
-      <c r="L24" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F25" s="0"/>
-      <c r="H25" s="0"/>
-      <c r="I25" s="0"/>
-      <c r="J25" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="L25" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="N25" s="0"/>
-      <c r="O25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H26" s="0"/>
-      <c r="I26" s="0"/>
-      <c r="J26" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K26" s="0"/>
-      <c r="L26" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="N26" s="0"/>
-      <c r="O26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="H27" s="0"/>
-      <c r="I27" s="0"/>
-      <c r="J27" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K27" s="0"/>
-      <c r="L27" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="N27" s="0"/>
-      <c r="O27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H28" s="0"/>
-      <c r="I28" s="0"/>
-      <c r="J28" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K28" s="0"/>
-      <c r="L28" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="N28" s="0"/>
-      <c r="O28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="H29" s="0"/>
-      <c r="I29" s="0"/>
-      <c r="J29" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="M29" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="N29" s="0"/>
-      <c r="O29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="H30" s="0"/>
-      <c r="I30" s="0"/>
-      <c r="J30" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K30" s="0"/>
-      <c r="L30" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="N30" s="0"/>
-      <c r="O30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="H31" s="0"/>
-      <c r="I31" s="0"/>
-      <c r="J31" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K31" s="0"/>
-      <c r="L31" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M31" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="N31" s="0"/>
-      <c r="O31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-      <c r="J32" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K32" s="0"/>
-      <c r="L32" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="M32" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="N32" s="0"/>
-      <c r="O32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-      <c r="J33" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" s="0"/>
-      <c r="L33" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="O33" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-      <c r="J34" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K34" s="0"/>
-      <c r="L34" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="M34" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="N34" s="0"/>
-      <c r="O34" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0"/>
-      <c r="J35" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" s="0"/>
-      <c r="L35" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="N35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="I36" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J36" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="K36" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="M36" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="N36" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="J37" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="J38" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B39"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="9.11"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -4473,133 +3458,133 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>17</v>
+      <c r="A1" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-1</v>
@@ -4724,7 +3709,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4849,7 +3834,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4974,7 +3959,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5099,7 +4084,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5224,7 +4209,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5349,7 +4334,7 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5474,7 +4459,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5599,7 +4584,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -5724,7 +4709,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5849,7 +4834,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -5974,7 +4959,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6099,7 +5084,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -6224,7 +5209,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6349,7 +5334,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6474,7 +5459,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6599,7 +5584,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6724,7 +5709,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6849,7 +5834,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6974,7 +5959,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7099,7 +6084,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -7224,7 +6209,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7349,7 +6334,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7474,7 +6459,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -7599,7 +6584,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7724,7 +6709,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7849,7 +6834,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -7974,7 +6959,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8099,7 +7084,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -8224,7 +7209,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -8349,7 +7334,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -8474,7 +7459,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -8599,7 +7584,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -8738,40 +7723,35 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>96</v>
@@ -8779,16 +7759,10 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>97</v>
@@ -8796,16 +7770,10 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>98</v>
@@ -8813,16 +7781,10 @@
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>99</v>
@@ -8830,16 +7792,10 @@
       <c r="C5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>100</v>
@@ -8847,16 +7803,10 @@
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>101</v>
@@ -8864,33 +7814,21 @@
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>102</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>103</v>
@@ -8898,33 +7836,21 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>105</v>
@@ -8932,16 +7858,10 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>106</v>
@@ -8949,16 +7869,10 @@
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>107</v>
@@ -8966,16 +7880,10 @@
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>108</v>
@@ -8983,16 +7891,10 @@
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>109</v>
@@ -9000,16 +7902,10 @@
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>110</v>
@@ -9017,16 +7913,10 @@
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>111</v>
@@ -9034,16 +7924,10 @@
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>112</v>
@@ -9051,16 +7935,10 @@
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>113</v>
@@ -9068,16 +7946,10 @@
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>114</v>
@@ -9085,50 +7957,32 @@
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>115</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>116</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>117</v>
@@ -9136,16 +7990,10 @@
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>118</v>
@@ -9153,16 +8001,10 @@
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>119</v>
@@ -9170,16 +8012,10 @@
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>120</v>
@@ -9187,16 +8023,10 @@
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>121</v>
@@ -9204,16 +8034,10 @@
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>122</v>
@@ -9221,16 +8045,10 @@
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>123</v>
@@ -9238,33 +8056,21 @@
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>125</v>
@@ -9272,16 +8078,10 @@
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>126</v>
@@ -9289,16 +8089,10 @@
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>127</v>
@@ -9306,16 +8100,10 @@
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>128</v>
@@ -9323,16 +8111,10 @@
       <c r="C34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>129</v>
@@ -9340,84 +8122,54 @@
       <c r="C35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>130</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>131</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>132</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>133</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>134</v>
@@ -9425,16 +8177,10 @@
       <c r="C40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>135</v>
@@ -9442,16 +8188,7 @@
       <c r="C41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -9471,542 +8208,434 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C37" activeCellId="0" sqref="C37"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>138</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>149</v>
-      </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>153</v>
-      </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="3" t="s">
         <v>157</v>
       </c>
+      <c r="B18" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B20" s="0" t="s">
-        <v>159</v>
-      </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>166</v>
+        <v>80</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>168</v>
+        <v>82</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>169</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>169</v>
+        <v>83</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>170</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>170</v>
+        <v>84</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>171</v>
+        <v>85</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>172</v>
+        <v>86</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>173</v>
+        <v>87</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>174</v>
+        <v>88</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -10025,10 +8654,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A35"/>
+  <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10038,172 +8667,207 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10225,7 +8889,7 @@
   <dimension ref="A2:A42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L29" activeCellId="0" sqref="L29"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10235,207 +8899,207 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10454,220 +9118,445 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A42"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <f aca="false">-26.4-0.6</f>
+        <v>-27</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">-26.4+0.6</f>
+        <v>-25.8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <f aca="false">-17.3-0.9</f>
+        <v>-18.2</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <f aca="false">-17.3+0.9</f>
+        <v>-16.4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">-10.1-6.4</f>
+        <v>-16.5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">-10.1+6.4</f>
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>66</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">-7.6-6.9</f>
+        <v>-14.5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">-7.6+6.9</f>
+        <v>-0.699999999999999</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">-21.8-3.9</f>
+        <v>-25.7</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">-21.8+3.9</f>
+        <v>-17.9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">-116.1-8.5</f>
+        <v>-124.6</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">-116.1+8.5</f>
+        <v>-107.6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">-66.5-6.2</f>
+        <v>-72.7</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">-66.5+6.2</f>
+        <v>-60.3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">-2.3-2.6</f>
+        <v>-4.9</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">-2.3+2.6</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">-20.9-3.3</f>
+        <v>-24.2</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">-20.9+3.3</f>
+        <v>-17.6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">11.2-6.3</f>
+        <v>4.9</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">11.2+6.3</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">-1.9-1.5</f>
+        <v>-3.4</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">-1.9+1.5</f>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">-3.4-2.3</f>
+        <v>-5.7</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">-3.4+2.3</f>
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">-3.8-3.8</f>
+        <v>-7.6</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">-3.8+3.8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">-10-3.8</f>
+        <v>-13.8</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">-10+3.8</f>
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">-0.7-2.8</f>
+        <v>-3.5</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">-0.7+2.8</f>
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">-43.1-5.1</f>
+        <v>-48.2</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">-43.1+5.1</f>
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">15.5-4.1</f>
+        <v>11.4</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">15.5+4.1</f>
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>82</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">2.5-0.8</f>
+        <v>1.7</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">2.5+0.8</f>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">-11.4-1.4</f>
+        <v>-12.8</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">-11.4+1.4</f>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">-19.8-1</f>
+        <v>-20.8</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">-19.8+1</f>
+        <v>-18.8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">-5.5-1.1</f>
+        <v>-6.6</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">-5.5+1.1</f>
+        <v>-4.4</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">7.8-0.8</f>
+        <v>7</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">7.8+0.8</f>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">-18.5-0.9</f>
+        <v>-19.4</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">-18.5+0.9</f>
+        <v>-17.6</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">4.2-0.7</f>
+        <v>3.5</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">4.2+0.7</f>
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">-4.1-0.6</f>
+        <v>-4.7</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">-4.1+0.6</f>
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">-27.7-0.8</f>
+        <v>-28.5</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">-27.7+0.8</f>
+        <v>-26.9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>92</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -10682,549 +9571,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E34"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">-26.4-0.6</f>
-        <v>-27</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">-26.4+0.6</f>
-        <v>-25.8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="3" t="n">
-        <f aca="false">-17.3-0.9</f>
-        <v>-18.2</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <f aca="false">-17.3+0.9</f>
-        <v>-16.4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">-10.1-6.4</f>
-        <v>-16.5</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">-10.1+6.4</f>
-        <v>-3.7</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">-7.6-6.9</f>
-        <v>-14.5</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">-7.6+6.9</f>
-        <v>-0.699999999999999</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">-21.8-3.9</f>
-        <v>-25.7</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">-21.8+3.9</f>
-        <v>-17.9</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <f aca="false">-116.1-8.5</f>
-        <v>-124.6</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">-116.1+8.5</f>
-        <v>-107.6</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <f aca="false">-66.5-6.2</f>
-        <v>-72.7</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <f aca="false">-66.5+6.2</f>
-        <v>-60.3</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <f aca="false">-2.3-2.6</f>
-        <v>-4.9</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <f aca="false">-2.3+2.6</f>
-        <v>0.3</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <f aca="false">-20.9-3.3</f>
-        <v>-24.2</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <f aca="false">-20.9+3.3</f>
-        <v>-17.6</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <f aca="false">11.2-6.3</f>
-        <v>4.9</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <f aca="false">11.2+6.3</f>
-        <v>17.5</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <f aca="false">-1.9-1.5</f>
-        <v>-3.4</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <f aca="false">-1.9+1.5</f>
-        <v>-0.4</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <f aca="false">-3.4-2.3</f>
-        <v>-5.7</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <f aca="false">-3.4+2.3</f>
-        <v>-1.1</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <f aca="false">-3.8-3.8</f>
-        <v>-7.6</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <f aca="false">-3.8+3.8</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <f aca="false">-10-3.8</f>
-        <v>-13.8</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <f aca="false">-10+3.8</f>
-        <v>-6.2</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <f aca="false">-0.7-2.8</f>
-        <v>-3.5</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <f aca="false">-0.7+2.8</f>
-        <v>2.1</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <f aca="false">-43.1-5.1</f>
-        <v>-48.2</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <f aca="false">-43.1+5.1</f>
-        <v>-38</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <f aca="false">15.5-4.1</f>
-        <v>11.4</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <f aca="false">15.5+4.1</f>
-        <v>19.6</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <f aca="false">2.5-0.8</f>
-        <v>1.7</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <f aca="false">2.5+0.8</f>
-        <v>3.3</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <f aca="false">-11.4-1.4</f>
-        <v>-12.8</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <f aca="false">-11.4+1.4</f>
-        <v>-10</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>201</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <f aca="false">-19.8-1</f>
-        <v>-20.8</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <f aca="false">-19.8+1</f>
-        <v>-18.8</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <f aca="false">-5.5-1.1</f>
-        <v>-6.6</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <f aca="false">-5.5+1.1</f>
-        <v>-4.4</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <f aca="false">7.8-0.8</f>
-        <v>7</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <f aca="false">7.8+0.8</f>
-        <v>8.6</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <f aca="false">-18.5-0.9</f>
-        <v>-19.4</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <f aca="false">-18.5+0.9</f>
-        <v>-17.6</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <f aca="false">4.2-0.7</f>
-        <v>3.5</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <f aca="false">4.2+0.7</f>
-        <v>4.9</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <f aca="false">-4.1-0.6</f>
-        <v>-4.7</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <f aca="false">-4.1+0.6</f>
-        <v>-3.5</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <f aca="false">-27.7-0.8</f>
-        <v>-28.5</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <f aca="false">-27.7+0.8</f>
-        <v>-26.9</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>-5</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -11245,18 +9591,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -11267,7 +9613,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -11278,7 +9624,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.000439345784032404</v>
@@ -11289,7 +9635,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -11300,7 +9646,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>6.24506431401138E-005</v>
@@ -11311,7 +9657,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -11322,7 +9668,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.000883222876526612</v>
@@ -11333,7 +9679,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -11344,7 +9690,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -11355,7 +9701,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -11366,7 +9712,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.46062514038848E-005</v>
@@ -11377,7 +9723,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -11388,7 +9734,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -11399,7 +9745,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -11410,7 +9756,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -11421,7 +9767,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>2.24717321858005E-006</v>
@@ -11432,7 +9778,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5.09756677236925E-005</v>
@@ -11443,7 +9789,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -11454,7 +9800,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -11465,7 +9811,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -11476,7 +9822,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -11487,7 +9833,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>5.71511530863543E-005</v>
@@ -11498,7 +9844,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>7.3421020529482E-006</v>
@@ -11509,7 +9855,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -11520,7 +9866,7 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <f aca="false">10^-12</f>
@@ -11533,7 +9879,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.000132829358941644</v>
@@ -11544,7 +9890,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -11555,7 +9901,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.000178644347391622</v>
@@ -11566,7 +9912,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -11577,7 +9923,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.000169455106133193</v>
@@ -11588,7 +9934,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1.27743320102832E-005</v>
@@ -11599,7 +9945,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>9.16927083333333E-005</v>
@@ -11610,9 +9956,9 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="3" t="n">
+        <v>52</v>
+      </c>
+      <c r="B34" s="4" t="n">
         <v>0.000203370048921735</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -11621,7 +9967,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>3.05924813144013E-006</v>
@@ -11632,7 +9978,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -11643,7 +9989,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1E-012</v>
@@ -11654,7 +10000,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1E-012</v>
@@ -11665,7 +10011,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.000321335591728953</v>
@@ -11676,7 +10022,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -11687,13 +10033,474 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <f aca="false">B3+B12</f>
+        <v>6110</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>600</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <f aca="false">B14-B24</f>
+        <v>600</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <f aca="false">4.79*10^3</f>
+        <v>4790</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <f aca="false">4.79*10^3</f>
+        <v>4790</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <f aca="false">0.72*10^3</f>
+        <v>720</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">0.06*10^3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <f aca="false">0.72*10^3</f>
+        <v>720</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">0.06*10^3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <f aca="false">0.72*10^3</f>
+        <v>720</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <f aca="false">0.06*10^3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <f aca="false">5.51*10^3</f>
+        <v>5510</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <f aca="false">0.72*10^3</f>
+        <v>720</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <f aca="false">0.06*10^3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">1.17*10^3</f>
+        <v>1170</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">1.17*10^3</f>
+        <v>1170</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">0.59*10^3</f>
+        <v>590</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <f aca="false">0.03*10^3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <f aca="false">0.44*10^3</f>
+        <v>440</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <f aca="false">0.59*10^3</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <f aca="false">0.15*10^3</f>
+        <v>150</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <f aca="false">0.59*10^3</f>
+        <v>590</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">0.15*10^3</f>
+        <v>150</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <f aca="false">0.01*10^3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <f aca="false">0.01*10^3</f>
+        <v>10</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <f aca="false">0.01*10^3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <f aca="false">0.15*10^3</f>
+        <v>150</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <f aca="false">0.01*10^3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <f aca="false">6.11*10^ 3</f>
+        <v>6110</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <f aca="false">6.11*10^ 3</f>
+        <v>6110</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <f aca="false">0.57*10^3</f>
+        <v>570</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">0.46*10^3</f>
+        <v>460</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <f aca="false">0.03*10^3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <f aca="false">0.46*10^3</f>
+        <v>460</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <f aca="false">0.03*10^3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <f aca="false">0.46*10^3</f>
+        <v>460</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <f aca="false">0.03*10^3</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <f aca="false">5.11*10^3</f>
+        <v>5110</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <f aca="false">5.11*10^3</f>
+        <v>5110</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <f aca="false">0.04*10^3</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <f aca="false">4.36*10^3</f>
+        <v>4360</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <f aca="false">4.36*10^3</f>
+        <v>4360</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <f aca="false">0.07*10^3</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <f aca="false">3.89*10^3</f>
+        <v>3890</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <f aca="false">0.08*10^3</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <f aca="false">B23+B32</f>
+        <v>10000</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <f aca="false">B31-B32</f>
+        <v>470</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
